--- a/trunk/Docs/danhmuc.xlsx
+++ b/trunk/Docs/danhmuc.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K2" t="s">
@@ -983,7 +983,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K3" t="s">
